--- a/stat_arb/pair_perform/002013.SZ@600372.SH.xlsx
+++ b/stat_arb/pair_perform/002013.SZ@600372.SH.xlsx
@@ -444,22 +444,22 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>3002195.838505991</v>
+        <v>-1382628.907630294</v>
       </c>
       <c r="E2">
-        <v>0.5794210179284551</v>
+        <v>-0.2668460993787538</v>
       </c>
       <c r="F2">
-        <v>0.5794210179284551</v>
+        <v>-0.2668460993787538</v>
       </c>
       <c r="G2">
-        <v>4.221897063980226</v>
+        <v>-1.942841297250925</v>
       </c>
       <c r="H2">
-        <v>0.06668862131815845</v>
+        <v>0.3116964448071499</v>
       </c>
       <c r="I2">
-        <v>81</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
